--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3363.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3363.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.220264965182224</v>
+        <v>0.70486980676651</v>
       </c>
       <c r="B1">
-        <v>2.586778193018768</v>
+        <v>3.114413499832153</v>
       </c>
       <c r="C1">
-        <v>5.462075566319601</v>
+        <v>2.863125801086426</v>
       </c>
       <c r="D1">
-        <v>2.600495802068309</v>
+        <v>2.368735551834106</v>
       </c>
       <c r="E1">
-        <v>1.174135439490888</v>
+        <v>2.109610319137573</v>
       </c>
     </row>
   </sheetData>
